--- a/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.联调音乐视频等接口返回细节
+2.整理资源类型</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -113,8 +117,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -157,6 +161,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,14 +222,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,32 +259,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,87 +289,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -321,49 +325,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,115 +493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,39 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -583,21 +554,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,16 +594,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,136 +654,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,7 +1192,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1432,7 +1436,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" ht="34.5" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1451,8 +1455,12 @@
       <c r="F11" s="6">
         <v>20180105</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
       <c r="A12" s="6" t="s">
@@ -1462,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1484,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1506,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1528,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1547,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1584,7 +1592,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
+++ b/20180105周报/技术支撑服务人员周报日报-20180105.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>1.演唱会直播间其它人员开发的接口熟悉（演唱会概要，详情，轮询接口等）
 2.Spring Cloud框架技术研究并技术分享（服务注册与发现）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1docker技术学习交流。
+2kubernate技术学习交流
+3线网bug支持</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -131,6 +137,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -138,24 +145,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,17 +174,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -594,20 +608,20 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -659,7 +673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -681,7 +695,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -703,7 +717,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -725,7 +739,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -747,7 +761,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -769,7 +783,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -788,10 +802,12 @@
       <c r="F8" s="4">
         <v>20180105</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -815,7 +831,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -837,7 +853,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -863,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -885,7 +901,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -907,7 +923,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -929,7 +945,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -951,7 +967,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -970,7 +986,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H17" s="15"/>
     </row>
   </sheetData>
@@ -988,41 +1004,41 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
     </row>
   </sheetData>
